--- a/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\elec\SoTCCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45A609-26B9-4339-9D5E-4B611259B063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F09CD25-8B6A-452A-AF86-A50ACEAB6F77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="150" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
   <si>
     <t>Capital Costs</t>
   </si>
@@ -57,9 +57,6 @@
     <t>D01T03: Agriculture, forestry and fishing</t>
   </si>
   <si>
-    <t>D07T08: Mining and quarrying of non-energy producing products</t>
-  </si>
-  <si>
     <t>D09: Mining support service activities</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>D22: Rubber and plastic products</t>
   </si>
   <si>
-    <t>D23: Other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>D24: Basic metals</t>
-  </si>
-  <si>
     <t>D25: Fabricated metal products</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
   </si>
   <si>
-    <t>D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
-  </si>
-  <si>
     <t>D41T43: Construction</t>
   </si>
   <si>
@@ -183,12 +171,6 @@
     <t>ISIC 22</t>
   </si>
   <si>
-    <t>ISIC 23</t>
-  </si>
-  <si>
-    <t>ISIC 24</t>
-  </si>
-  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
-    <t>ISIC 35T39</t>
-  </si>
-  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -457,6 +436,51 @@
   </si>
   <si>
     <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>D07T08: Mining and quarrying of uranium and non-energy-producing products</t>
+  </si>
+  <si>
+    <t>D231: Glass</t>
+  </si>
+  <si>
+    <t>ISIC 231</t>
+  </si>
+  <si>
+    <t>D239: Cement and other nometallic minerals</t>
+  </si>
+  <si>
+    <t>ISIC 239</t>
+  </si>
+  <si>
+    <t>D241: Iron and steel</t>
+  </si>
+  <si>
+    <t>ISIC 241</t>
+  </si>
+  <si>
+    <t>D242: Other metals</t>
+  </si>
+  <si>
+    <t>ISIC 242</t>
+  </si>
+  <si>
+    <t>D351: Electricity generation and distribution</t>
+  </si>
+  <si>
+    <t>ISIC 351</t>
+  </si>
+  <si>
+    <t>D352T353: Energy pipelines and gas processing</t>
+  </si>
+  <si>
+    <t>ISIC 352T353</t>
+  </si>
+  <si>
+    <t>D36T39: Water and waste</t>
+  </si>
+  <si>
+    <t>ISIC 36T39</t>
   </si>
 </sst>
 </file>
@@ -1142,15 +1166,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,17 +1184,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1200,10 +1224,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,303 +1235,335 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1595,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="55"/>
@@ -1552,16 +1608,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -1569,7 +1625,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="47"/>
@@ -1579,7 +1635,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" s="36">
         <v>375000</v>
@@ -1589,20 +1645,20 @@
         <v>1.2997394453391755E-2</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>'OECD Mapping'!A33</f>
+        <f>'OECD Mapping'!A37</f>
         <v>D68: Real estate activities</v>
       </c>
       <c r="E4" s="10" t="str">
-        <f>'OECD Mapping'!B33</f>
+        <f>'OECD Mapping'!B37</f>
         <v>ISIC 68</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B5" s="36">
         <v>363636.36363636365</v>
@@ -1612,20 +1668,20 @@
         <v>1.2603534015410187E-2</v>
       </c>
       <c r="D5" s="11" t="str">
-        <f>'OECD Mapping'!A33</f>
+        <f>'OECD Mapping'!A37</f>
         <v>D68: Real estate activities</v>
       </c>
       <c r="E5" s="11" t="str">
-        <f>'OECD Mapping'!B33</f>
+        <f>'OECD Mapping'!B37</f>
         <v>ISIC 68</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B6" s="36">
         <v>900000</v>
@@ -1635,20 +1691,20 @@
         <v>3.1193746688140213E-2</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>'OECD Mapping'!A34</f>
+        <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f>'OECD Mapping'!B34</f>
+        <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B7" s="36">
         <v>675000</v>
@@ -1658,20 +1714,20 @@
         <v>2.3395310016105158E-2</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>'OECD Mapping'!A34</f>
+        <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f>'OECD Mapping'!B34</f>
+        <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B8" s="36">
         <v>2313636.3636363638</v>
@@ -1680,36 +1736,36 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="47"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="47"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B11" s="38">
         <v>600000</v>
@@ -1719,20 +1775,20 @@
         <v>2.0795831125426809E-2</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>'OECD Mapping'!A15</f>
-        <v>D23: Other non-metallic mineral products</v>
+        <f>'OECD Mapping'!A16</f>
+        <v>D239: Cement and other nometallic minerals</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f>'OECD Mapping'!B15</f>
-        <v>ISIC 23</v>
+        <f>'OECD Mapping'!B16</f>
+        <v>ISIC 239</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B12" s="38">
         <v>4950000</v>
@@ -1742,20 +1798,20 @@
         <v>0.17156560678477117</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>'OECD Mapping'!A17</f>
+        <f>'OECD Mapping'!A19</f>
         <v>D25: Fabricated metal products</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f>'OECD Mapping'!B17</f>
+        <f>'OECD Mapping'!B19</f>
         <v>ISIC 25</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B13" s="38">
         <v>3300000</v>
@@ -1765,20 +1821,20 @@
         <v>0.11437707118984744</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f>'OECD Mapping'!A19</f>
+        <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f>'OECD Mapping'!B19</f>
+        <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B14" s="39">
         <v>8850000</v>
@@ -1787,24 +1843,24 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="47"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B16" s="38">
         <v>1765400.1798561153</v>
@@ -1814,20 +1870,20 @@
         <v>6.1188273348476478E-2</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>'OECD Mapping'!A25</f>
+        <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>'OECD Mapping'!B25</f>
+        <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B17" s="38">
         <v>3276000</v>
@@ -1837,20 +1893,20 @@
         <v>0.11354523794483037</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>'OECD Mapping'!A25</f>
+        <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>'OECD Mapping'!B25</f>
+        <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B18" s="39">
         <v>5041400.179856115</v>
@@ -1859,12 +1915,12 @@
       <c r="D18" s="4"/>
       <c r="E18" s="11"/>
       <c r="F18" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B19" s="41">
         <v>16205036.543492477</v>
@@ -1873,36 +1929,36 @@
       <c r="D19" s="4"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="47"/>
       <c r="D20" s="4"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="47"/>
       <c r="D21" s="4"/>
       <c r="E21" s="11"/>
       <c r="F21" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B22" s="39">
         <v>1800000</v>
@@ -1912,20 +1968,20 @@
         <v>6.2387493376280426E-2</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>'OECD Mapping'!A24</f>
-        <v>D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</v>
+        <f>'OECD Mapping'!A26</f>
+        <v>D351: Electricity generation and distribution</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f>'OECD Mapping'!B24</f>
-        <v>ISIC 35T39</v>
+        <f>'OECD Mapping'!B26</f>
+        <v>ISIC 351</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B23" s="43">
         <v>650000</v>
@@ -1935,20 +1991,20 @@
         <v>2.2528817052545707E-2</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f>'OECD Mapping'!A20</f>
+        <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f>'OECD Mapping'!B20</f>
+        <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B24" s="43">
         <v>20000</v>
@@ -1958,20 +2014,20 @@
         <v>6.9319437084756029E-4</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>'OECD Mapping'!A20</f>
+        <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="E24" s="11" t="str">
-        <f>'OECD Mapping'!B20</f>
+        <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B25" s="39">
         <v>4800000</v>
@@ -1981,20 +2037,20 @@
         <v>0.16636664900341447</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>'OECD Mapping'!A19</f>
+        <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
       <c r="E25" s="10" t="str">
-        <f>'OECD Mapping'!B19</f>
+        <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B26" s="43">
         <v>0</v>
@@ -2004,20 +2060,20 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f>'OECD Mapping'!A19</f>
+        <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
       <c r="E26" s="10" t="str">
-        <f>'OECD Mapping'!B19</f>
+        <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B27" s="39">
         <v>7270000</v>
@@ -2026,12 +2082,12 @@
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
       <c r="F27" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="47">
@@ -2041,12 +2097,12 @@
       <c r="D28" s="4"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B29" s="39">
         <v>2092500</v>
@@ -2056,20 +2112,20 @@
         <v>7.2525461049925993E-2</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f>'OECD Mapping'!$A$25</f>
+        <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E29" s="10" t="str">
-        <f>'OECD Mapping'!$B$25</f>
+        <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B30" s="43">
         <v>744000</v>
@@ -2079,20 +2135,20 @@
         <v>2.5786830595529241E-2</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>'OECD Mapping'!$A$25</f>
+        <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E30" s="11" t="str">
-        <f>'OECD Mapping'!$B$25</f>
+        <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B31" s="43">
         <v>27900</v>
@@ -2102,20 +2158,20 @@
         <v>9.6700614733234659E-4</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>'OECD Mapping'!$A$25</f>
+        <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E31" s="10" t="str">
-        <f>'OECD Mapping'!$B$25</f>
+        <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B32" s="38">
         <v>0</v>
@@ -2125,20 +2181,20 @@
         <v>0</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f>'OECD Mapping'!$A$25</f>
+        <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E32" s="10" t="str">
-        <f>'OECD Mapping'!$B$25</f>
+        <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B33" s="38">
         <v>0</v>
@@ -2148,20 +2204,20 @@
         <v>0</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f>'OECD Mapping'!$A$25</f>
+        <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
       <c r="E33" s="11" t="str">
-        <f>'OECD Mapping'!$B$25</f>
+        <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B34" s="39">
         <v>2864400</v>
@@ -2170,12 +2226,12 @@
       <c r="D34" s="4"/>
       <c r="E34" s="10"/>
       <c r="F34" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B35" s="42">
         <v>10134400</v>
@@ -2184,38 +2240,38 @@
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
       <c r="F35" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
       <c r="F36" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="47"/>
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
       <c r="F37" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B38" s="39">
         <v>375000</v>
@@ -2225,20 +2281,20 @@
         <v>1.2997394453391755E-2</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f>'OECD Mapping'!A34</f>
+        <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E38" s="10" t="str">
-        <f>'OECD Mapping'!B34</f>
+        <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B39" s="39">
         <v>750000</v>
@@ -2248,15 +2304,15 @@
         <v>2.5994788906783511E-2</v>
       </c>
       <c r="D39" s="50" t="str">
-        <f>'OECD Mapping'!A34</f>
+        <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>'OECD Mapping'!B34</f>
+        <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2270,24 +2326,24 @@
       <c r="D40" s="4"/>
       <c r="E40" s="10"/>
       <c r="F40" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B41" s="42"/>
       <c r="C41" s="47"/>
       <c r="D41" s="4"/>
       <c r="E41" s="10"/>
       <c r="F41" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B42" s="39">
         <v>222000</v>
@@ -2297,20 +2353,20 @@
         <v>7.6944575164079191E-3</v>
       </c>
       <c r="D42" s="50" t="str">
-        <f>'OECD Mapping'!A34</f>
+        <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E42" s="11" t="str">
-        <f>'OECD Mapping'!B34</f>
+        <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B43" s="39">
         <v>1110000</v>
@@ -2320,15 +2376,15 @@
         <v>3.8472287582039591E-2</v>
       </c>
       <c r="D43" s="50" t="str">
-        <f>'OECD Mapping'!A34</f>
+        <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E43" s="10" t="str">
-        <f>'OECD Mapping'!B34</f>
+        <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2342,24 +2398,24 @@
       <c r="D44" s="4"/>
       <c r="E44" s="10"/>
       <c r="F44" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B45" s="42"/>
       <c r="C45" s="47"/>
       <c r="D45" s="4"/>
       <c r="E45" s="11"/>
       <c r="F45" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B46" s="38">
         <v>0</v>
@@ -2369,20 +2425,20 @@
         <v>0</v>
       </c>
       <c r="D46" s="50" t="str">
-        <f>'OECD Mapping'!$A$34</f>
+        <f>'OECD Mapping'!$A$38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E46" s="10" t="str">
-        <f>'OECD Mapping'!$B$34</f>
+        <f>'OECD Mapping'!$B$38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B47" s="38">
         <v>0</v>
@@ -2392,20 +2448,20 @@
         <v>0</v>
       </c>
       <c r="D47" s="50" t="str">
-        <f>'OECD Mapping'!$A$34</f>
+        <f>'OECD Mapping'!$A$38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E47" s="10" t="str">
-        <f>'OECD Mapping'!$B$34</f>
+        <f>'OECD Mapping'!$B$38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B48" s="38">
         <v>0</v>
@@ -2415,20 +2471,20 @@
         <v>0</v>
       </c>
       <c r="D48" s="50" t="str">
-        <f>'OECD Mapping'!$A$34</f>
+        <f>'OECD Mapping'!$A$38</f>
         <v>D69T82: Other business sector services</v>
       </c>
       <c r="E48" s="11" t="str">
-        <f>'OECD Mapping'!$B$34</f>
+        <f>'OECD Mapping'!$B$38</f>
         <v>ISIC 69T82</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B49" s="38">
         <v>55500</v>
@@ -2438,20 +2494,20 @@
         <v>1.9236143791019798E-3</v>
       </c>
       <c r="D49" s="50" t="str">
-        <f>'OECD Mapping'!A32</f>
+        <f>'OECD Mapping'!A36</f>
         <v>D64T66: Financial and insurance activities</v>
       </c>
       <c r="E49" s="10" t="str">
-        <f>'OECD Mapping'!B32</f>
+        <f>'OECD Mapping'!B36</f>
         <v>ISIC 64T66</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B50" s="38">
         <v>55500</v>
@@ -2460,12 +2516,12 @@
       <c r="D50" s="4"/>
       <c r="E50" s="10"/>
       <c r="F50" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B51" s="44">
         <v>2512500</v>
@@ -2474,7 +2530,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="11"/>
       <c r="F51" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2488,7 +2544,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="10"/>
       <c r="F52" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2502,12 +2558,12 @@
       <c r="D53" s="4"/>
       <c r="E53" s="10"/>
       <c r="F53" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B54" s="33">
         <v>29859436.543492477</v>
@@ -2530,138 +2586,153 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="39" width="10.42578125" customWidth="1"/>
+    <col min="2" max="26" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" customWidth="1"/>
+    <col min="29" max="43" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="51" t="s">
+      <c r="I1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="51" t="s">
+      <c r="R1" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="T1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="U1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="51" t="s">
+      <c r="V1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Y1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="Z1" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="AD1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="AE1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="AF1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="AG1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="AH1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="AI1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="AJ1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="AK1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AL1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AM1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="51" t="s">
+      <c r="AN1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="AO1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="AP1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AQ1" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH1" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI1" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ1" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK1" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL1" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM1" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!B$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2717,15 +2788,15 @@
       </c>
       <c r="O2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!O$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>2.0795831125426809E-2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!P$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>2.0795831125426809E-2</v>
       </c>
       <c r="Q2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Q$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.17156560678477117</v>
+        <v>0</v>
       </c>
       <c r="R2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!R$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2733,19 +2804,19 @@
       </c>
       <c r="S2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!S$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.28074372019326188</v>
+        <v>0.17156560678477117</v>
       </c>
       <c r="T2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!T$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>2.3222011423393266E-2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!U$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>0.28074372019326188</v>
       </c>
       <c r="V2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!V$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>2.3222011423393266E-2</v>
       </c>
       <c r="W2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!W$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2753,15 +2824,15 @@
       </c>
       <c r="X2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!X$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>6.2387493376280426E-2</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Y$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.27401280908609443</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Z$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>6.2387493376280426E-2</v>
       </c>
       <c r="AA2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AA$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2773,7 +2844,7 @@
       </c>
       <c r="AC2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AC$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>0.27401280908609443</v>
       </c>
       <c r="AD2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AD$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2785,15 +2856,15 @@
       </c>
       <c r="AF2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AF$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>1.9236143791019798E-3</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AG$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>2.5600928468801944E-2</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AH$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.13974798516286813</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AI$1,'Cost Breakdowns'!$C$3:$C$49)</f>
@@ -2801,22 +2872,38 @@
       </c>
       <c r="AJ2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AJ$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>1.9236143791019798E-3</v>
       </c>
       <c r="AK2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AK$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>2.5600928468801944E-2</v>
       </c>
       <c r="AL2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AL$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
+        <v>0.13974798516286813</v>
       </c>
       <c r="AM2" s="13">
         <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AM$1,'Cost Breakdowns'!$C$3:$C$49)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2" s="13">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AN$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="13">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AO$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="13">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AP$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="13">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AQ$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="F10" s="13"/>
     </row>
   </sheetData>

--- a/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\elec\SoTCCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\SoTCCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F09CD25-8B6A-452A-AF86-A50ACEAB6F77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="150" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="150" windowWidth="25665" windowHeight="16830"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
     <sheet name="OECD Mapping" sheetId="2" r:id="rId2"/>
     <sheet name="Cost Breakdowns" sheetId="1" r:id="rId3"/>
-    <sheet name="SoTCCbIC" sheetId="3" r:id="rId4"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="5" r:id="rId4"/>
+    <sheet name="SoTCCbIC" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="151">
   <si>
     <t>Capital Costs</t>
   </si>
@@ -481,12 +481,21 @@
   </si>
   <si>
     <t>ISIC 36T39</t>
+  </si>
+  <si>
+    <t>EU ISIC Consolidation</t>
+  </si>
+  <si>
+    <t>Default EPS ISIC Groupings</t>
+  </si>
+  <si>
+    <t>EU ISIC Groupings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -597,7 +606,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,19 +780,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -861,6 +870,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,13 +888,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_DefaultData" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_DefaultData" xfId="5"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1154,45 +1173,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -1203,34 +1222,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="77.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1246,7 +1265,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1254,7 +1273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -1262,7 +1281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1350,7 +1369,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1358,7 +1377,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1366,7 +1385,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1374,7 +1393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1414,7 +1433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -1430,7 +1449,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -1438,7 +1457,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -1446,7 +1465,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1462,7 +1481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1470,7 +1489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1494,7 +1513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1502,7 +1521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1510,7 +1529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1518,7 +1537,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1526,7 +1545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1561,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1558,7 +1577,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1572,45 +1591,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.59765625" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.1328125" customWidth="1"/>
+    <col min="11" max="11" width="74.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1623,954 +1642,957 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="34">
         <v>375000</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="45">
         <f>B4/$B$52</f>
         <v>1.2997394453391755E-2</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="8" t="str">
         <f>'OECD Mapping'!A37</f>
         <v>D68: Real estate activities</v>
       </c>
-      <c r="E4" s="10" t="str">
+      <c r="E4" s="8" t="str">
         <f>'OECD Mapping'!B37</f>
         <v>ISIC 68</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="F4" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <v>363636.36363636365</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="45">
         <f t="shared" ref="C5:C49" si="0">B5/$B$52</f>
         <v>1.2603534015410187E-2</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="9" t="str">
         <f>'OECD Mapping'!A37</f>
         <v>D68: Real estate activities</v>
       </c>
-      <c r="E5" s="11" t="str">
+      <c r="E5" s="9" t="str">
         <f>'OECD Mapping'!B37</f>
         <v>ISIC 68</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="F5" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>900000</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="45">
         <f t="shared" si="0"/>
         <v>3.1193746688140213E-2</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="8" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="8" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="F6" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <v>675000</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="45">
         <f t="shared" si="0"/>
         <v>2.3395310016105158E-2</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="8" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="8" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="F7" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="34">
         <v>2313636.3636363638</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="36">
         <v>600000</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="45">
         <f t="shared" si="0"/>
         <v>2.0795831125426809E-2</v>
       </c>
-      <c r="D11" s="10" t="str">
+      <c r="D11" s="8" t="str">
         <f>'OECD Mapping'!A16</f>
         <v>D239: Cement and other nometallic minerals</v>
       </c>
-      <c r="E11" s="10" t="str">
+      <c r="E11" s="8" t="str">
         <f>'OECD Mapping'!B16</f>
         <v>ISIC 239</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="F11" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="36">
         <v>4950000</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="45">
         <f t="shared" si="0"/>
         <v>0.17156560678477117</v>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="8" t="str">
         <f>'OECD Mapping'!A19</f>
         <v>D25: Fabricated metal products</v>
       </c>
-      <c r="E12" s="10" t="str">
+      <c r="E12" s="8" t="str">
         <f>'OECD Mapping'!B19</f>
         <v>ISIC 25</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="F12" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="36">
         <v>3300000</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="45">
         <f t="shared" si="0"/>
         <v>0.11437707118984744</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="10" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="E13" s="10" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="F13" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="37">
         <v>8850000</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="36">
         <v>1765400.1798561153</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="45">
         <f t="shared" si="0"/>
         <v>6.1188273348476478E-2</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="51" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="51" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="F16" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="36">
         <v>3276000</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="45">
         <f t="shared" si="0"/>
         <v>0.11354523794483037</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="51" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="51" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="F17" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="37">
         <v>5041400.179856115</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <v>16205036.543492477</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="37">
         <v>1800000</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="45">
         <f t="shared" si="0"/>
         <v>6.2387493376280426E-2</v>
       </c>
-      <c r="D22" s="4" t="str">
-        <f>'OECD Mapping'!A26</f>
-        <v>D351: Electricity generation and distribution</v>
-      </c>
-      <c r="E22" s="10" t="str">
-        <f>'OECD Mapping'!B26</f>
-        <v>ISIC 351</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="D22" s="3" t="str">
+        <f>'OECD Mapping'!$A$21</f>
+        <v>D27: Electrical equipment</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>'OECD Mapping'!$B$21</f>
+        <v>ISIC 27</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="41">
         <v>650000</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="45">
         <f t="shared" si="0"/>
         <v>2.2528817052545707E-2</v>
       </c>
-      <c r="D23" s="4" t="str">
-        <f>'OECD Mapping'!A22</f>
-        <v>D28: Machinery and equipment, nec</v>
-      </c>
-      <c r="E23" s="10" t="str">
-        <f>'OECD Mapping'!B22</f>
-        <v>ISIC 28</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="D23" s="3" t="str">
+        <f>'OECD Mapping'!$A$21</f>
+        <v>D27: Electrical equipment</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f>'OECD Mapping'!$B$21</f>
+        <v>ISIC 27</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="41">
         <v>20000</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="45">
         <f t="shared" si="0"/>
         <v>6.9319437084756029E-4</v>
       </c>
-      <c r="D24" s="4" t="str">
-        <f>'OECD Mapping'!A22</f>
-        <v>D28: Machinery and equipment, nec</v>
-      </c>
-      <c r="E24" s="11" t="str">
-        <f>'OECD Mapping'!B22</f>
-        <v>ISIC 28</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="D24" s="3" t="str">
+        <f>'OECD Mapping'!$A$21</f>
+        <v>D27: Electrical equipment</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>'OECD Mapping'!$B$21</f>
+        <v>ISIC 27</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="37">
         <v>4800000</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="45">
         <f t="shared" si="0"/>
         <v>0.16636664900341447</v>
       </c>
-      <c r="D25" s="4" t="str">
-        <f>'OECD Mapping'!A21</f>
+      <c r="D25" s="3" t="str">
+        <f>'OECD Mapping'!$A$21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="E25" s="10" t="str">
-        <f>'OECD Mapping'!B21</f>
+      <c r="E25" s="8" t="str">
+        <f>'OECD Mapping'!$B$21</f>
         <v>ISIC 27</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="F25" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="43">
-        <v>0</v>
-      </c>
-      <c r="C26" s="47">
+      <c r="B26" s="41">
+        <v>0</v>
+      </c>
+      <c r="C26" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="4" t="str">
-        <f>'OECD Mapping'!A21</f>
+      <c r="D26" s="3" t="str">
+        <f>'OECD Mapping'!$A$21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="E26" s="10" t="str">
-        <f>'OECD Mapping'!B21</f>
+      <c r="E26" s="8" t="str">
+        <f>'OECD Mapping'!$B$21</f>
         <v>ISIC 27</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="F26" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="37">
         <v>7270000</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="47">
+      <c r="B28" s="38"/>
+      <c r="C28" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="37">
         <v>2092500</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="45">
         <f t="shared" si="0"/>
         <v>7.2525461049925993E-2</v>
       </c>
-      <c r="D29" s="10" t="str">
+      <c r="D29" s="8" t="str">
         <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E29" s="10" t="str">
+      <c r="E29" s="8" t="str">
         <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="F29" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="41">
         <v>744000</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="45">
         <f t="shared" si="0"/>
         <v>2.5786830595529241E-2</v>
       </c>
-      <c r="D30" s="10" t="str">
+      <c r="D30" s="8" t="str">
         <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E30" s="11" t="str">
+      <c r="E30" s="9" t="str">
         <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="F30" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="41">
         <v>27900</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="45">
         <f t="shared" si="0"/>
         <v>9.6700614733234659E-4</v>
       </c>
-      <c r="D31" s="10" t="str">
+      <c r="D31" s="8" t="str">
         <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E31" s="10" t="str">
+      <c r="E31" s="8" t="str">
         <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="F31" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="38">
-        <v>0</v>
-      </c>
-      <c r="C32" s="47">
+      <c r="B32" s="36">
+        <v>0</v>
+      </c>
+      <c r="C32" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="10" t="str">
+      <c r="D32" s="8" t="str">
         <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E32" s="10" t="str">
+      <c r="E32" s="8" t="str">
         <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="F32" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="38">
-        <v>0</v>
-      </c>
-      <c r="C33" s="47">
+      <c r="B33" s="36">
+        <v>0</v>
+      </c>
+      <c r="C33" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="10" t="str">
+      <c r="D33" s="8" t="str">
         <f>'OECD Mapping'!$A$29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="9" t="str">
         <f>'OECD Mapping'!$B$29</f>
         <v>ISIC 41T43</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="F33" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="37">
         <v>2864400</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="40">
         <v>10134400</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="37">
         <v>375000</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="45">
         <f t="shared" si="0"/>
         <v>1.2997394453391755E-2</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="3" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E38" s="10" t="str">
+      <c r="E38" s="8" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="F38" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="37">
         <v>750000</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="45">
         <f t="shared" si="0"/>
         <v>2.5994788906783511E-2</v>
       </c>
-      <c r="D39" s="50" t="str">
+      <c r="D39" s="48" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E39" s="11" t="str">
+      <c r="E39" s="9" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="F39" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="39">
+      <c r="B40" s="37">
         <v>1125000</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="39">
+      <c r="B42" s="37">
         <v>222000</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="45">
         <f t="shared" si="0"/>
         <v>7.6944575164079191E-3</v>
       </c>
-      <c r="D42" s="50" t="str">
+      <c r="D42" s="48" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E42" s="11" t="str">
+      <c r="E42" s="9" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="F42" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="37">
         <v>1110000</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="45">
         <f t="shared" si="0"/>
         <v>3.8472287582039591E-2</v>
       </c>
-      <c r="D43" s="50" t="str">
+      <c r="D43" s="48" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E43" s="10" t="str">
+      <c r="E43" s="8" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="F43" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="37">
         <v>1332000</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="C44" s="45"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="38">
-        <v>0</v>
-      </c>
-      <c r="C46" s="47">
+      <c r="B46" s="36">
+        <v>0</v>
+      </c>
+      <c r="C46" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D46" s="50" t="str">
+      <c r="D46" s="48" t="str">
         <f>'OECD Mapping'!$A$38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E46" s="10" t="str">
+      <c r="E46" s="8" t="str">
         <f>'OECD Mapping'!$B$38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="F46" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="38">
-        <v>0</v>
-      </c>
-      <c r="C47" s="47">
+      <c r="B47" s="36">
+        <v>0</v>
+      </c>
+      <c r="C47" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D47" s="50" t="str">
+      <c r="D47" s="48" t="str">
         <f>'OECD Mapping'!$A$38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E47" s="10" t="str">
+      <c r="E47" s="8" t="str">
         <f>'OECD Mapping'!$B$38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="F47" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="38">
-        <v>0</v>
-      </c>
-      <c r="C48" s="47">
+      <c r="B48" s="36">
+        <v>0</v>
+      </c>
+      <c r="C48" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D48" s="50" t="str">
+      <c r="D48" s="48" t="str">
         <f>'OECD Mapping'!$A$38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="E48" s="11" t="str">
+      <c r="E48" s="9" t="str">
         <f>'OECD Mapping'!$B$38</f>
         <v>ISIC 69T82</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="F48" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="36">
         <v>55500</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="45">
         <f t="shared" si="0"/>
         <v>1.9236143791019798E-3</v>
       </c>
-      <c r="D49" s="50" t="str">
+      <c r="D49" s="48" t="str">
         <f>'OECD Mapping'!A36</f>
         <v>D64T66: Financial and insurance activities</v>
       </c>
-      <c r="E49" s="10" t="str">
+      <c r="E49" s="8" t="str">
         <f>'OECD Mapping'!B36</f>
         <v>ISIC 64T66</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="F49" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="36">
         <v>55500</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
+      <c r="C50" s="45"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="42">
         <v>2512500</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="C51" s="45"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="43">
         <v>28851936.543492477</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+      <c r="C52" s="45"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="44">
         <v>1007500</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
+      <c r="C53" s="45"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="31">
         <v>29859436.543492477</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="48"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C55" s="46"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C56" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2582,329 +2604,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A2" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA2" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!B$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!C$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!D$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!E$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!F$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!G$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!H$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!I$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!J$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!K$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!L$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!M$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!N$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!O$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!P$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>2.0795831125426809E-2</v>
+      </c>
+      <c r="Q3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!Q$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!R$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!S$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0.17156560678477117</v>
+      </c>
+      <c r="T3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!T$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!U$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0.3663532249929356</v>
+      </c>
+      <c r="V3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!V$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!W$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!X$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!Y$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!Z$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AA$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AB$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AC$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0.27401280908609443</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AD$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AE$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AF$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AG$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AH$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AI$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AJ$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>1.9236143791019798E-3</v>
+      </c>
+      <c r="AK3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AK$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>2.5600928468801944E-2</v>
+      </c>
+      <c r="AL3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AL$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0.13974798516286813</v>
+      </c>
+      <c r="AM3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AM$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AN$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AO$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AP$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="11">
+        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,'Pre ISIC Consolidation'!AQ$2,'Cost Breakdowns'!$C$3:$C$49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A5" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA6" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB6" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC6" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE6" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF6" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL6" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM6" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN6" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO6" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP6" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ6" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA7" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB7" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE7" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF7" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG7" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH7" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK7" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL7" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN7" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO7" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP7" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ7" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AQ2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="26" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" customWidth="1"/>
-    <col min="29" max="43" width="10.42578125" customWidth="1"/>
+    <col min="2" max="26" width="10.3984375" customWidth="1"/>
+    <col min="27" max="27" width="13.265625" customWidth="1"/>
+    <col min="28" max="28" width="11.265625" customWidth="1"/>
+    <col min="29" max="43" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="A1" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Y1" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="Z1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AA1" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AB1" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="51" t="s">
+      <c r="AC1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="AD1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="AE1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="51" t="s">
+      <c r="AG1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="51" t="s">
+      <c r="AH1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="AI1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="51" t="s">
+      <c r="AJ1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AK1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="51" t="s">
+      <c r="AL1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="51" t="s">
+      <c r="AM1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="51" t="s">
+      <c r="AN1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="51" t="s">
+      <c r="AO1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="51" t="s">
+      <c r="AP1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!B$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!C$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!D$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!E$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!F$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!G$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!H$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!I$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!J$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!K$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!L$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!M$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!N$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!O$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!P$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+      <c r="B2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!B1)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!C1)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!P1)</f>
         <v>2.0795831125426809E-2</v>
       </c>
-      <c r="Q2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Q$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!R$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!S$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.17156560678477117</v>
-      </c>
-      <c r="T2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!T$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!U$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0.28074372019326188</v>
-      </c>
-      <c r="V2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!V$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>2.3222011423393266E-2</v>
-      </c>
-      <c r="W2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!W$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!X$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Y$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!Z$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>6.2387493376280426E-2</v>
-      </c>
-      <c r="AA2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AA$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AB$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AC$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+      <c r="Q2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!V1)</f>
+        <v>0.53791883177770683</v>
+      </c>
+      <c r="W2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!Y1)</f>
         <v>0.27401280908609443</v>
       </c>
-      <c r="AD2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AD$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AE$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AF$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AG$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AH$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AI$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AJ$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+      <c r="Z2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AA1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AB1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AE1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AF1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AJ1)</f>
         <v>1.9236143791019798E-3</v>
       </c>
-      <c r="AK2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AK$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+      <c r="AK2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AK1)</f>
         <v>2.5600928468801944E-2</v>
       </c>
-      <c r="AL2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AL$1,'Cost Breakdowns'!$C$3:$C$49)</f>
+      <c r="AL2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AL1)</f>
         <v>0.13974798516286813</v>
       </c>
-      <c r="AM2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AM$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AN2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AN$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AO2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AO$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AP$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="13">
-        <f>SUMIF('Cost Breakdowns'!$E$3:$E$49,SoTCCbIC!AQ$1,'Cost Breakdowns'!$C$3:$C$49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="F10" s="13"/>
+      <c r="AM2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AP1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="11">
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!AQ1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="F10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoTCCbIC/Share of Transmission Capital Costs by ISIC Code.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\SoTCCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\elec\SoTCCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9873FA-3E94-4BB8-8744-4417798C75DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="150" windowWidth="25665" windowHeight="16830"/>
+    <workbookView xWindow="-28110" yWindow="945" windowWidth="25995" windowHeight="13605" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Pre ISIC Consolidation" sheetId="5" r:id="rId4"/>
     <sheet name="SoTCCbIC" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -495,7 +498,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -879,6 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,14 +892,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_DefaultData" xfId="5"/>
+    <cellStyle name="Normal_DefaultData" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1173,22 +1176,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="61.86328125" customWidth="1"/>
+    <col min="2" max="2" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>125</v>
       </c>
@@ -1196,22 +1199,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -1222,26 +1225,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="77.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.73046875" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>66</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1591,38 +1594,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.73046875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.59765625" customWidth="1"/>
-    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.1328125" customWidth="1"/>
-    <col min="11" max="11" width="74.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.6328125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.08984375" customWidth="1"/>
+    <col min="11" max="11" width="74.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.65" x14ac:dyDescent="0.45">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>79</v>
       </c>
@@ -1652,7 +1655,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>80</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>81</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>82</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>83</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>84</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>85</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>86</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>87</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>88</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21" t="s">
         <v>89</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>90</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>91</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="21" t="s">
         <v>92</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="21" t="s">
         <v>93</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>94</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
         <v>95</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
         <v>96</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25" t="s">
         <v>86</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>97</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26" t="s">
         <v>98</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26" t="s">
         <v>99</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22" t="s">
         <v>100</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="26" t="s">
         <v>101</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="22" t="s">
         <v>90</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23" t="s">
         <v>72</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="22" t="s">
         <v>97</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="26" t="s">
         <v>102</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="26" t="s">
         <v>99</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="21" t="s">
         <v>100</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="21" t="s">
         <v>103</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="22" t="s">
         <v>104</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="25" t="s">
         <v>105</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="23" t="s">
         <v>106</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23" t="s">
         <v>107</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="22" t="s">
         <v>108</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="22" t="s">
         <v>109</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="22" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="25" t="s">
         <v>110</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="22" t="s">
         <v>111</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="22" t="s">
         <v>112</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="22" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
         <v>113</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="21" t="s">
         <v>114</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="21" t="s">
         <v>115</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="21" t="s">
         <v>116</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="27" t="s">
         <v>117</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="21" t="s">
         <v>118</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="28" t="s">
         <v>119</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="29" t="s">
         <v>2</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="30" t="s">
         <v>3</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>120</v>
       </c>
@@ -2588,10 +2591,10 @@
         <v>29859436.543492477</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C55" s="46"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C56" s="46"/>
     </row>
   </sheetData>
@@ -2604,66 +2607,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>127</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -2967,54 +2970,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>132</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F7" s="49" t="s">
         <v>37</v>
@@ -3186,7 +3189,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="49" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O7" s="49" t="s">
         <v>135</v>
@@ -3201,13 +3204,13 @@
         <v>141</v>
       </c>
       <c r="S7" s="49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T7" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U7" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V7" s="49" t="s">
         <v>47</v>
@@ -3216,7 +3219,7 @@
         <v>48</v>
       </c>
       <c r="X7" s="49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y7" s="49" t="s">
         <v>50</v>
@@ -3282,26 +3285,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AQ2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O8:AC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="26" width="10.3984375" customWidth="1"/>
-    <col min="27" max="27" width="13.265625" customWidth="1"/>
-    <col min="28" max="28" width="11.265625" customWidth="1"/>
-    <col min="29" max="43" width="10.3984375" customWidth="1"/>
+    <col min="2" max="26" width="10.36328125" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="11.26953125" customWidth="1"/>
+    <col min="29" max="43" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>127</v>
       </c>
@@ -3432,7 +3435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -3506,7 +3509,7 @@
       </c>
       <c r="S2" s="11">
         <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!S1)</f>
-        <v>0</v>
+        <v>0.17156560678477117</v>
       </c>
       <c r="T2" s="11">
         <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!T1)</f>
@@ -3514,11 +3517,11 @@
       </c>
       <c r="U2" s="11">
         <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!U1)</f>
-        <v>0</v>
+        <v>0.3663532249929356</v>
       </c>
       <c r="V2" s="11">
         <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!V1)</f>
-        <v>0.53791883177770683</v>
+        <v>0</v>
       </c>
       <c r="W2" s="11">
         <f>SUMIFS('Pre ISIC Consolidation'!$B$3:$AQ$3,'Pre ISIC Consolidation'!$B$7:$AQ$7,SoTCCbIC!W1)</f>
@@ -3605,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F10" s="11"/>
     </row>
   </sheetData>
